--- a/data/evaluation/evaluation_South_Summer_Kohlrabi.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Kohlrabi.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3174.713418109668</v>
+        <v>3212.08609006734</v>
       </c>
       <c r="C4" t="n">
-        <v>13116121.62216851</v>
+        <v>13436466.67731774</v>
       </c>
       <c r="D4" t="n">
-        <v>3621.618646705987</v>
+        <v>3665.578627900067</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4561277893062252</v>
+        <v>-0.4916919103480148</v>
       </c>
     </row>
     <row r="5">
